--- a/0咪咕音乐/咪咕音乐v3122/咪咕音乐Jadeite_USS_music-V3.12.2版本测试用例.xlsx
+++ b/0咪咕音乐/咪咕音乐v3122/咪咕音乐Jadeite_USS_music-V3.12.2版本测试用例.xlsx
@@ -10,14 +10,14 @@
     <sheet name="es" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">es!$A$1:$XEU$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">es!$A$1:$XEU$20</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="83">
   <si>
     <t>*功能模块</t>
   </si>
@@ -98,11 +98,19 @@
 2、搜索接口正常</t>
   </si>
   <si>
+    <t>全部禁止
+此曲只应天上有
+用户</t>
+  </si>
+  <si>
     <t>1、歌单搜索接口（用户歌单搜索打开）搜索目标歌单搜索词
 2、查看接口返回</t>
   </si>
   <si>
     <t>1、返回结果中有用户歌单</t>
+  </si>
+  <si>
+    <t>v3.12.2</t>
   </si>
   <si>
     <t>开关关闭，歌单接口搜不到用户歌单</t>
@@ -237,16 +245,10 @@
     <t>歌曲名不包含歌手名</t>
   </si>
   <si>
-    <t>mgyy-010</t>
-  </si>
-  <si>
     <t>1、返回结果中显示歌手名</t>
   </si>
   <si>
     <t>返回歌曲中有歌曲描述</t>
-  </si>
-  <si>
-    <t>mgyy-011</t>
   </si>
   <si>
     <t>The Marriage Of Figaro</t>
@@ -262,11 +264,29 @@
     <t>联想提示搜索影视名、综艺名</t>
   </si>
   <si>
-    <t>mgyy-012</t>
-  </si>
-  <si>
-    <t>超级女生2005
-王牌对王牌（有无版权歌曲召回）</t>
+    <t>超级女声2005
+说唱听我的2
+西虹市首富
+极品飞车</t>
+  </si>
+  <si>
+    <t>现网专辑问题</t>
+  </si>
+  <si>
+    <t>专辑tab下名称搜索</t>
+  </si>
+  <si>
+    <t>mgyy-013</t>
+  </si>
+  <si>
+    <t>free loop</t>
+  </si>
+  <si>
+    <t>1、专辑接口搜索目标词
+2、查看返回结果</t>
+  </si>
+  <si>
+    <t>1.最佳展示位上有专辑，专辑tab下也有专辑展示</t>
   </si>
 </sst>
 </file>
@@ -275,9 +295,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -328,29 +348,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,8 +371,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,65 +471,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -449,24 +485,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,61 +513,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,121 +681,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,11 +824,44 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -828,22 +881,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -863,41 +911,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -909,10 +929,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -921,133 +941,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1490,9 +1510,9 @@
   <dimension ref="A1:AC22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22" customHeight="1"/>
@@ -1677,14 +1697,18 @@
       <c r="H5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="21"/>
+      <c r="I5" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="J5" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K5" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="21"/>
+        <v>28</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>29</v>
+      </c>
       <c r="M5" s="21"/>
       <c r="N5" s="22"/>
       <c r="O5" s="23"/>
@@ -1705,25 +1729,29 @@
       <c r="C6" s="20"/>
       <c r="D6" s="19"/>
       <c r="E6" s="21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H6" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="21"/>
+      <c r="I6" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="J6" s="21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K6" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="21"/>
+        <v>34</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>29</v>
+      </c>
       <c r="M6" s="21"/>
       <c r="N6" s="22"/>
       <c r="O6" s="23"/>
@@ -1742,7 +1770,7 @@
       <c r="A7" s="17"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -1772,7 +1800,7 @@
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="18"/>
@@ -1802,25 +1830,27 @@
       <c r="C9" s="20"/>
       <c r="D9" s="19"/>
       <c r="E9" s="21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G9" s="21" t="s">
         <v>24</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I9" s="21"/>
       <c r="J9" s="21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K9" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" s="21"/>
+        <v>41</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>29</v>
+      </c>
       <c r="M9" s="21"/>
       <c r="N9" s="22"/>
       <c r="O9" s="23"/>
@@ -1841,10 +1871,10 @@
       <c r="C10" s="20"/>
       <c r="D10" s="19"/>
       <c r="E10" s="21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G10" s="21" t="s">
         <v>24</v>
@@ -1854,12 +1884,14 @@
       </c>
       <c r="I10" s="21"/>
       <c r="J10" s="21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="21"/>
+        <v>45</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>29</v>
+      </c>
       <c r="M10" s="21"/>
       <c r="N10" s="22"/>
       <c r="O10" s="23"/>
@@ -1880,25 +1912,27 @@
       <c r="C11" s="20"/>
       <c r="D11" s="19"/>
       <c r="E11" s="21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H11" s="21" t="s">
         <v>25</v>
       </c>
       <c r="I11" s="21"/>
       <c r="J11" s="21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="L11" s="21"/>
+        <v>49</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>29</v>
+      </c>
       <c r="M11" s="21"/>
       <c r="N11" s="22"/>
       <c r="O11" s="23"/>
@@ -1918,7 +1952,7 @@
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="18"/>
@@ -1948,25 +1982,27 @@
       <c r="C13" s="20"/>
       <c r="D13" s="19"/>
       <c r="E13" s="21" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G13" s="21" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I13" s="21"/>
       <c r="J13" s="21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="L13" s="21"/>
+        <v>54</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>29</v>
+      </c>
       <c r="M13" s="21"/>
       <c r="N13" s="22"/>
       <c r="O13" s="23"/>
@@ -1987,10 +2023,10 @@
       <c r="C14" s="20"/>
       <c r="D14" s="19"/>
       <c r="E14" s="21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G14" s="21" t="s">
         <v>24</v>
@@ -2000,12 +2036,14 @@
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="L14" s="21"/>
+        <v>58</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>29</v>
+      </c>
       <c r="M14" s="21"/>
       <c r="N14" s="22"/>
       <c r="O14" s="23"/>
@@ -2026,25 +2064,27 @@
       <c r="C15" s="20"/>
       <c r="D15" s="19"/>
       <c r="E15" s="21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H15" s="21" t="s">
         <v>25</v>
       </c>
       <c r="I15" s="21"/>
       <c r="J15" s="21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K15" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="L15" s="21"/>
+        <v>62</v>
+      </c>
+      <c r="L15" s="21" t="s">
+        <v>29</v>
+      </c>
       <c r="M15" s="21"/>
       <c r="N15" s="22"/>
       <c r="O15" s="23"/>
@@ -2062,7 +2102,7 @@
     <row r="16" s="3" customFormat="1" ht="45" spans="1:25">
       <c r="A16" s="17"/>
       <c r="B16" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -2094,10 +2134,10 @@
       <c r="C17" s="20"/>
       <c r="D17" s="19"/>
       <c r="E17" s="21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G17" s="21" t="s">
         <v>24</v>
@@ -2106,15 +2146,17 @@
         <v>25</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="L17" s="21"/>
+        <v>68</v>
+      </c>
+      <c r="L17" s="21" t="s">
+        <v>29</v>
+      </c>
       <c r="M17" s="21"/>
       <c r="N17" s="22"/>
       <c r="O17" s="23"/>
@@ -2135,25 +2177,27 @@
       <c r="C18" s="20"/>
       <c r="D18" s="19"/>
       <c r="E18" s="21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H18" s="21" t="s">
         <v>25</v>
       </c>
       <c r="I18" s="21"/>
       <c r="J18" s="21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="L18" s="21"/>
+        <v>70</v>
+      </c>
+      <c r="L18" s="21" t="s">
+        <v>29</v>
+      </c>
       <c r="M18" s="21"/>
       <c r="N18" s="22"/>
       <c r="O18" s="23"/>
@@ -2174,13 +2218,13 @@
       <c r="C19" s="20"/>
       <c r="D19" s="19"/>
       <c r="E19" s="21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H19" s="21" t="s">
         <v>25</v>
@@ -2194,7 +2238,9 @@
       <c r="K19" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="L19" s="21"/>
+      <c r="L19" s="21" t="s">
+        <v>29</v>
+      </c>
       <c r="M19" s="21"/>
       <c r="N19" s="22"/>
       <c r="O19" s="23"/>
@@ -2209,7 +2255,7 @@
       <c r="X19" s="27"/>
       <c r="Y19" s="27"/>
     </row>
-    <row r="20" s="3" customFormat="1" ht="45" spans="1:25">
+    <row r="20" s="3" customFormat="1" ht="60" spans="1:25">
       <c r="A20" s="19"/>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
@@ -2218,22 +2264,24 @@
         <v>75</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="G20" s="21"/>
       <c r="H20" s="21" t="s">
         <v>25</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K20" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="L20" s="21"/>
+        <v>68</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>29</v>
+      </c>
       <c r="M20" s="21"/>
       <c r="N20" s="22"/>
       <c r="O20" s="23"/>
@@ -2249,25 +2297,27 @@
       <c r="Y20" s="27"/>
     </row>
     <row r="21" s="3" customFormat="1" ht="15.6" spans="1:25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
       <c r="T21" s="27"/>
       <c r="U21" s="27"/>
       <c r="V21" s="27"/>
@@ -2275,19 +2325,35 @@
       <c r="X21" s="27"/>
       <c r="Y21" s="27"/>
     </row>
-    <row r="22" s="3" customFormat="1" ht="15.6" spans="1:25">
+    <row r="22" s="3" customFormat="1" ht="29" customHeight="1" spans="1:25">
       <c r="A22" s="19"/>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
       <c r="D22" s="19"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
+      <c r="E22" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="L22" s="21" t="s">
+        <v>29</v>
+      </c>
       <c r="M22" s="21"/>
       <c r="N22" s="22"/>
       <c r="O22" s="23"/>
@@ -2303,7 +2369,7 @@
       <c r="Y22" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:XEU18">
+  <autoFilter ref="A1:XEU20">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0咪咕音乐/咪咕音乐v3122/咪咕音乐Jadeite_USS_music-V3.12.2版本测试用例.xlsx
+++ b/0咪咕音乐/咪咕音乐v3122/咪咕音乐Jadeite_USS_music-V3.12.2版本测试用例.xlsx
@@ -10,7 +10,7 @@
     <sheet name="es" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">es!$A$1:$XEU$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">es!$A$1:$XEU$22</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -295,9 +295,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -348,6 +348,42 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -356,8 +392,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,6 +438,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -379,22 +476,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,90 +491,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -513,187 +513,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,6 +824,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -834,6 +873,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -859,60 +913,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -929,10 +929,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -941,133 +941,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1510,7 +1510,7 @@
   <dimension ref="A1:AC22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
     </sheetView>
@@ -2369,7 +2369,7 @@
       <c r="Y22" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:XEU20">
+  <autoFilter ref="A1:XEU22">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0咪咕音乐/咪咕音乐v3122/咪咕音乐Jadeite_USS_music-V3.12.2版本测试用例.xlsx
+++ b/0咪咕音乐/咪咕音乐v3122/咪咕音乐Jadeite_USS_music-V3.12.2版本测试用例.xlsx
@@ -294,10 +294,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -349,14 +349,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,28 +469,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -400,79 +477,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -483,14 +491,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -513,19 +513,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,25 +615,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,43 +651,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,43 +669,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,37 +693,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,21 +825,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -857,8 +842,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -874,6 +859,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -896,17 +905,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -929,145 +929,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1512,7 +1512,7 @@
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22" customHeight="1"/>
